--- a/Power_amp_v1.1_bom.xlsx
+++ b/Power_amp_v1.1_bom.xlsx
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R7,R8,R11,R12,R13,R14,R15,R16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>51KΩ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,10 @@
   </si>
   <si>
     <t>脚距5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7,R8,R12,R13,R14,R15,R16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,7 +785,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -863,7 +863,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1065,16 +1065,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
